--- a/biology/Botanique/Dalechampia/Dalechampia.xlsx
+++ b/biology/Botanique/Dalechampia/Dalechampia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalechampia est un genre de plantes à fleurs de la famille des Euphorbiaceae et de la sous-tribu  monogénérique des Dalechampiinae. Ce genre est très répandu dans les zones tropicales de plaine (généralement en dessous de 2 000 m), principalement dans les Amériques avec un plus petit nombre d'espèces en Afrique, sur Madagascar et au sud de l'Asie[1],[2] de nouvelles espèces sont encore décrites et plusieurs sont très rares et en danger d'extinction[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalechampia est un genre de plantes à fleurs de la famille des Euphorbiaceae et de la sous-tribu  monogénérique des Dalechampiinae. Ce genre est très répandu dans les zones tropicales de plaine (généralement en dessous de 2 000 m), principalement dans les Amériques avec un plus petit nombre d'espèces en Afrique, sur Madagascar et au sud de l'Asie, de nouvelles espèces sont encore décrites et plusieurs sont très rares et en danger d'extinction.
 Dalechampia a des fleurs unisexuées qui sont secondairement unies en fleurs bisexuées (pseudanthia), qui agissent comme unités de pollinisation. La pollinisation et l'évolution florale de ce genre ont été étudiées plus intensément que n'importe quel autre membre de la famille des euphorbes. Dans les Amériques néotropicales, la plupart des espèces sont pollinisées pendant la collecte de la résine par des abeilles femelles, y compris les abeilles Euglossine et Hypanthidium de la famille des Megachilidae, qui utilisent de la résine dans la construction de leurs nids. Environ une douzaine d'espèces néotropicales sont pollinisées par la collecte de parfum des abeilles Euglossine mâles qui utilisent ces parfums pour attirer les femelles pour l'accouplement. Il y a au moins trois périodes de pollinisation indépendantes depuis la pollinisation par les abeilles femelles collectrices de résine à la pollinisation par des abeilles mâles qui assemblent les parfums. De l’Afrique à l'Asie des espèces sont pollinisées par la collecte de résine des abeilles Megachilidae, mais des espèces malgaches sont pollinisées par des coléoptères qui se nourrissent de pollen et par la récolte de pollen des abeilles.
 Deux espèces sont particulièrement d’un certain intérêt en horticulture, D. spathulata et D. aristolochiifolia, elles ont des fleurs brillantes particulièrement voyantes avec des bractées rose et violet. Dalechampia aristolochiifolia, du Pérou, est devenu très populaire ces derniers temps, mais elle a été publiée et distribuée à tort sous le nom de D. dioscoreifolia.
 Dalechampia adscendens - Bolivie, Mato Grosso do Sul
